--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="4215" tabRatio="991" activeTab="2"/>
+    <workbookView activeTab="2" tabRatio="991" windowHeight="2565" windowWidth="15270" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="5" r:id="rId1"/>
-    <sheet name="TypeDeletion_Test_Data" sheetId="6" r:id="rId2"/>
-    <sheet name="Test Steps" sheetId="2" r:id="rId3"/>
-    <sheet name="FieldCreation_Test_Data" sheetId="10" r:id="rId4"/>
-    <sheet name="AudioField_Test_Data" sheetId="9" r:id="rId5"/>
-    <sheet name="ListFieldCreation_Test_Data" sheetId="8" r:id="rId6"/>
-    <sheet name="GroupCreation_Test_Data" sheetId="7" r:id="rId7"/>
-    <sheet name="TypeCreation_Test_Data" sheetId="4" r:id="rId8"/>
-    <sheet name="BackendLogin_Test_Data" sheetId="3" r:id="rId9"/>
+    <sheet name="Test Cases" r:id="rId1" sheetId="5"/>
+    <sheet name="MenuCreation_Test_Data" r:id="rId2" sheetId="17"/>
+    <sheet name="Test Steps" r:id="rId3" sheetId="2"/>
+    <sheet name="VideoCreation_Test_Data" r:id="rId4" sheetId="11"/>
+    <sheet name="TypeDeletion_Test_Data" r:id="rId5" sheetId="6"/>
+    <sheet name="UCMSubform_Test_Data" r:id="rId6" sheetId="15"/>
+    <sheet name="Ownership_Test_Data" r:id="rId7" sheetId="16"/>
+    <sheet name="HiddenField_Test_Data" r:id="rId8" sheetId="14"/>
+    <sheet name="ImageField_Test_Data" r:id="rId9" sheetId="12"/>
+    <sheet name="ItemCategory_Test_Data" r:id="rId10" sheetId="13"/>
+    <sheet name="FieldCreation_Test_Data" r:id="rId11" sheetId="10"/>
+    <sheet name="AudioField_Test_Data" r:id="rId12" sheetId="9"/>
+    <sheet name="ListFieldCreation_Test_Data" r:id="rId13" sheetId="8"/>
+    <sheet name="GroupCreation_Test_Data" r:id="rId14" sheetId="7"/>
+    <sheet name="TypeCreation_Test_Data" r:id="rId15" sheetId="4"/>
+    <sheet name="BackendLogin_Test_Data" r:id="rId16" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A72:E91"/>
+  <oleSize ref="A1:E16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="210">
   <si>
     <t>TSID</t>
   </si>
@@ -173,12 +180,6 @@
     <t>Searchtool</t>
   </si>
   <si>
-    <t>SelectStatus</t>
-  </si>
-  <si>
-    <t>SelectTrash</t>
-  </si>
-  <si>
     <t>EmptyTrash</t>
   </si>
   <si>
@@ -440,49 +441,242 @@
     <t>N</t>
   </si>
   <si>
+    <t xml:space="preserve">Audio Field </t>
+  </si>
+  <si>
+    <t>Video Creation</t>
+  </si>
+  <si>
+    <t>VideoCreation</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Video Field</t>
+  </si>
+  <si>
+    <t>SelectStatusTrash</t>
+  </si>
+  <si>
+    <t>col|Trash</t>
+  </si>
+  <si>
+    <t>clickDropdowntrashByXpath</t>
+  </si>
+  <si>
+    <t>SelectAllcheckbox</t>
+  </si>
+  <si>
+    <t>VideoHeight</t>
+  </si>
+  <si>
+    <t>VideoWidth</t>
+  </si>
+  <si>
+    <t>VideoLabel</t>
+  </si>
+  <si>
+    <t>VideoName</t>
+  </si>
+  <si>
+    <t>DisplayStyle</t>
+  </si>
+  <si>
+    <t>VimeoNo</t>
+  </si>
+  <si>
+    <t>FacebookNo</t>
+  </si>
+  <si>
+    <t>TwitchNo</t>
+  </si>
+  <si>
+    <t>DailyMotionNo</t>
+  </si>
+  <si>
+    <t>dropdownArrow</t>
+  </si>
+  <si>
+    <t>soundcloudNo</t>
+  </si>
+  <si>
+    <t>ImageField</t>
+  </si>
+  <si>
+    <t>col|Image</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Image Field</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>SizeUpload</t>
+  </si>
+  <si>
+    <t>col|Size</t>
+  </si>
+  <si>
+    <t>imageHeight</t>
+  </si>
+  <si>
+    <t>imageWidth</t>
+  </si>
+  <si>
+    <t>Image Field Creation</t>
+  </si>
+  <si>
+    <t>Item Category</t>
+  </si>
+  <si>
+    <t>ItemCategory</t>
+  </si>
+  <si>
+    <t>Item Category Field Creation</t>
+  </si>
+  <si>
+    <t>Hidden Field</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>HiddenField</t>
+  </si>
+  <si>
+    <t>Hidden Field Creation</t>
+  </si>
+  <si>
+    <t>col|Field</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Ownership Field</t>
+  </si>
+  <si>
+    <t>Ownership Field Creation</t>
+  </si>
+  <si>
+    <t>OwnershipYes</t>
+  </si>
+  <si>
+    <t>UCMSubform</t>
+  </si>
+  <si>
+    <t>UCMSubform Field Creation</t>
+  </si>
+  <si>
+    <t>UCM Subform</t>
+  </si>
+  <si>
+    <t>IsSubformYes</t>
+  </si>
+  <si>
+    <t>FormSource</t>
+  </si>
+  <si>
+    <t>col|SelectForm</t>
+  </si>
+  <si>
+    <t>SelectForm</t>
+  </si>
+  <si>
+    <t>SelectTypeforGroup</t>
+  </si>
+  <si>
+    <t>clickDropdownUCM</t>
+  </si>
+  <si>
+    <t>Menu Creation</t>
+  </si>
+  <si>
+    <t>MenuCreation</t>
+  </si>
+  <si>
+    <t>MenuTitle</t>
+  </si>
+  <si>
+    <t>FormMenu</t>
+  </si>
+  <si>
+    <t>MenuClick</t>
+  </si>
+  <si>
+    <t>AllMenu</t>
+  </si>
+  <si>
+    <t>MenuDropdown</t>
+  </si>
+  <si>
+    <t>SelectedDropdown</t>
+  </si>
+  <si>
+    <t>col|MenuTitle</t>
+  </si>
+  <si>
+    <t>SelectButton</t>
+  </si>
+  <si>
+    <t>SwitchtoIframe</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>SelectUcm</t>
+  </si>
+  <si>
+    <t>ItemForm</t>
+  </si>
+  <si>
+    <t>SwitchtoDefaultContent</t>
+  </si>
+  <si>
+    <t>UCMConfig</t>
+  </si>
+  <si>
+    <t>SelectUCMType</t>
+  </si>
+  <si>
     <t>Result1</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid field:  Title </t>
-  </si>
-  <si>
-    <t>×
-Message
-1 item successfully unpublished</t>
-  </si>
-  <si>
-    <t>×
-Message
-1 item successfully published</t>
-  </si>
-  <si>
-    <t>×
-Message
-1 item successfully trashed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">×
-Error
-Invalid field:  Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">×
-Error
-Invalid field:  Label 
-Invalid field:  Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio Field </t>
+    <t>Failno such element: Unable to locate element: {"method":"css selector","selector":"#\/\/button\[\@class\=\'btn\ btn\-small\ button\-new\ btn\-success\'\]"}
+  (Session info: chrome=89.0.4389.90)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DESKTOP-6LBM28T', ip: '192.168.0.100', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '14.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 89.0.4389.90, chrome: {chromedriverVersion: 89.0.4389.23 (61b08ee2c5002..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:53269}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: f04a9987f1a16450c8904eddc16e6b32
+*** Element info: {Using=id, value=//button[@class='btn btn-small button-new btn-success']}</t>
+  </si>
+  <si>
+    <t>newType</t>
+  </si>
+  <si>
+    <t>clickElementByCss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -527,6 +721,29 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -592,42 +809,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -712,10 +934,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -750,7 +972,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,7 +1007,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,21 +1101,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -910,7 +1132,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -962,31 +1184,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="70">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row ht="25.5" r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="35.25" r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1026,18 +1248,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22.5" r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,120 +1280,577 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="F1" sqref="F1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="12">
+        <v>100</v>
+      </c>
+      <c r="E2" s="12">
+        <v>100</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E1" sqref="E1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="56.42578125" collapsed="true"/>
+    <col min="3" max="3" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" width="9.28515625" collapsed="true"/>
+    <col min="6" max="1025" width="11.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="suborgadmin12@yopmail.com" r:id="rId1" ref="C2"/>
+    <hyperlink display="suborgadmin12@yopmail.com" r:id="rId2" ref="D2"/>
+  </hyperlinks>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1179,35 +1858,37 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALC103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AKY1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="70" zoomScaleNormal="100">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="71.42578125" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="990" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" width="71.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="7" max="986" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:991" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1224,10 +1905,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:991" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1238,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1252,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1269,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1286,10 +1967,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1300,10 +1981,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1314,10 +1995,10 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1328,24 +2009,24 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:991" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:991" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1358,11 +2039,8 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:991" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1372,11 +2050,8 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:991" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1384,13 +2059,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:991" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1400,25 +2072,19 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:991" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:991" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1426,15 +2092,12 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1443,9 +2106,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="15.75" r="17" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1454,9 +2117,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="15.75" r="18" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1465,1220 +2128,2364 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:991" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="15.75" r="19" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    <row r="23" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="24" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:991" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:991" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:991" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:991" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:991" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:991" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:991" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:991" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:991" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>31</v>
+    </row>
+    <row r="34" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="47" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
         <v>42</v>
       </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:991" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:991" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
         <v>42</v>
       </c>
-      <c r="D55" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:991" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
         <v>94</v>
       </c>
-      <c r="F63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:991" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:991" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:991" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:991" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:991" x14ac:dyDescent="0.2">
+      <c r="D68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>121</v>
+      <c r="C69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>72</v>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="14" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="7"/>
+    </row>
+    <row r="83" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="13"/>
       <c r="C83" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="14" t="s">
-        <v>44</v>
+      <c r="C88" t="s">
+        <v>81</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="E88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="7"/>
-      <c r="C89" t="s">
-        <v>83</v>
+      <c r="C89" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>136</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="E91" s="7"/>
-      <c r="F91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E92" s="7"/>
-      <c r="F92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E96" s="7"/>
-      <c r="F96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:987" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A117" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A123" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A125" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A126" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A127" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A131" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:991" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:991" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:991" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="D132" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A133" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A134" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A135" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A136" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A137" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A138" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A139" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A141" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A142" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A143" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A145" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A146" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A147" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A148" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A149" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A151" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A153" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A154" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A155" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A156" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A158" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A161" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" s="16"/>
+    </row>
+    <row r="162" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A162" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A163" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A165" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="16"/>
+    </row>
+    <row r="166" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A166" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A167" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A169" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A170" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A174" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A175" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A176" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A177" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A178" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A179" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A182" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="16"/>
+    </row>
+    <row r="183" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A183" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A184" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A185" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="186" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A186" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A187" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A188" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A189" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A191" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A193" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A194" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A197" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A200" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A201" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="A203" s="16"/>
+    </row>
+    <row r="1048576" spans="3:987" x14ac:dyDescent="0.2">
+      <c r="C1048576" s="7"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2687,335 +4494,325 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12">
-        <v>100</v>
-      </c>
-      <c r="E2" s="12">
-        <v>100</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
+      <c r="A2" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" collapsed="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" collapsed="1"/>
-    <col min="6" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="suborgadmin12@yopmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="suborgadmin12@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="991" windowHeight="2565" windowWidth="15270" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="3480" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="5"/>
-    <sheet name="MenuCreation_Test_Data" r:id="rId2" sheetId="17"/>
-    <sheet name="Test Steps" r:id="rId3" sheetId="2"/>
-    <sheet name="VideoCreation_Test_Data" r:id="rId4" sheetId="11"/>
-    <sheet name="TypeDeletion_Test_Data" r:id="rId5" sheetId="6"/>
-    <sheet name="UCMSubform_Test_Data" r:id="rId6" sheetId="15"/>
-    <sheet name="Ownership_Test_Data" r:id="rId7" sheetId="16"/>
-    <sheet name="HiddenField_Test_Data" r:id="rId8" sheetId="14"/>
-    <sheet name="ImageField_Test_Data" r:id="rId9" sheetId="12"/>
-    <sheet name="ItemCategory_Test_Data" r:id="rId10" sheetId="13"/>
-    <sheet name="FieldCreation_Test_Data" r:id="rId11" sheetId="10"/>
-    <sheet name="AudioField_Test_Data" r:id="rId12" sheetId="9"/>
-    <sheet name="ListFieldCreation_Test_Data" r:id="rId13" sheetId="8"/>
-    <sheet name="GroupCreation_Test_Data" r:id="rId14" sheetId="7"/>
-    <sheet name="TypeCreation_Test_Data" r:id="rId15" sheetId="4"/>
-    <sheet name="BackendLogin_Test_Data" r:id="rId16" sheetId="3"/>
+    <sheet name="Test Cases" sheetId="5" r:id="rId1"/>
+    <sheet name="MenuCreation_Test_Data" sheetId="17" r:id="rId2"/>
+    <sheet name="Test Steps" sheetId="18" r:id="rId3"/>
+    <sheet name="VideoCreation_Test_Data" sheetId="11" r:id="rId4"/>
+    <sheet name="TypeDeletion_Test_Data" sheetId="6" r:id="rId5"/>
+    <sheet name="UCMSubform_Test_Data" sheetId="15" r:id="rId6"/>
+    <sheet name="Ownership_Test_Data" sheetId="16" r:id="rId7"/>
+    <sheet name="HiddenField_Test_Data" sheetId="14" r:id="rId8"/>
+    <sheet name="ImageField_Test_Data" sheetId="12" r:id="rId9"/>
+    <sheet name="ItemCategory_Test_Data" sheetId="13" r:id="rId10"/>
+    <sheet name="FieldCreation_Test_Data" sheetId="10" r:id="rId11"/>
+    <sheet name="AudioField_Test_Data" sheetId="9" r:id="rId12"/>
+    <sheet name="ListFieldCreation_Test_Data" sheetId="8" r:id="rId13"/>
+    <sheet name="GroupCreation_Test_Data" sheetId="7" r:id="rId14"/>
+    <sheet name="TypeCreation_Test_Data" sheetId="4" r:id="rId15"/>
+    <sheet name="BackendLogin_Test_Data" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:E16"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="205">
   <si>
     <t>TSID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>col|Password</t>
-  </si>
-  <si>
-    <t>clickbutton</t>
   </si>
   <si>
     <t>Browser</t>
@@ -462,9 +459,6 @@
     <t>col|Trash</t>
   </si>
   <si>
-    <t>clickDropdowntrashByXpath</t>
-  </si>
-  <si>
     <t>SelectAllcheckbox</t>
   </si>
   <si>
@@ -594,9 +588,6 @@
     <t>SelectTypeforGroup</t>
   </si>
   <si>
-    <t>clickDropdownUCM</t>
-  </si>
-  <si>
     <t>Menu Creation</t>
   </si>
   <si>
@@ -648,34 +639,19 @@
     <t>SelectUCMType</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Failno such element: Unable to locate element: {"method":"css selector","selector":"#\/\/button\[\@class\=\'btn\ btn\-small\ button\-new\ btn\-success\'\]"}
-  (Session info: chrome=89.0.4389.90)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DESKTOP-6LBM28T', ip: '192.168.0.100', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '14.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 89.0.4389.90, chrome: {chromedriverVersion: 89.0.4389.23 (61b08ee2c5002..., userDataDir: C:\Users\Dell\AppData\Local...}, goog:chromeOptions: {debuggerAddress: localhost:53269}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: f04a9987f1a16450c8904eddc16e6b32
-*** Element info: {Using=id, value=//button[@class='btn btn-small button-new btn-success']}</t>
-  </si>
-  <si>
     <t>newType</t>
   </si>
   <si>
     <t>clickElementByCss</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -809,47 +785,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -934,10 +910,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -972,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,7 +983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1101,21 +1077,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1132,7 +1108,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1184,36 +1160,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="25.5" r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1228,48 +1204,48 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.25" r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="5" t="s">
@@ -1280,139 +1256,139 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>135</v>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1420,13 +1396,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1447,35 +1423,35 @@
       <c r="F17" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1483,51 +1459,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>3</v>
@@ -1535,56 +1511,56 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>3</v>
@@ -1592,13 +1568,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="12">
         <v>100</v>
@@ -1611,47 +1587,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
       <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1659,57 +1635,57 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1717,40 +1693,40 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1758,47 +1734,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="56.42578125" collapsed="true"/>
-    <col min="3" max="3" width="25.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" width="9.28515625" collapsed="true"/>
-    <col min="6" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="8.140625" collapsed="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" collapsed="1"/>
+    <col min="6" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1806,16 +1782,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1823,11 +1799,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="suborgadmin12@yopmail.com" r:id="rId1" ref="C2"/>
-    <hyperlink display="suborgadmin12@yopmail.com" r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1" display="suborgadmin12@yopmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="suborgadmin12@yopmail.com"/>
   </hyperlinks>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1836,21 +1812,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1858,37 +1834,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AKY1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="70" zoomScaleNormal="100">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" width="71.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="7" max="986" width="11.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1904,13 +1877,10 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1918,13 +1888,10 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1932,16 +1899,13 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1949,16 +1913,13 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1966,2562 +1927,2554 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:987" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:987" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:987" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:987" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="2" t="s">
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
         <v>84</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
         <v>85</v>
       </c>
-      <c r="E63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="E68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" t="s">
+    <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E70" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>109</v>
+    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="7"/>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="14" t="s">
-        <v>118</v>
+      <c r="C73" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:987" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="14" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:987" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="14" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="E77" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
-        <v>42</v>
+      <c r="C78" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:987" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>70</v>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="13"/>
+    <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" t="s">
-        <v>77</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D85" s="7"/>
+    <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="7" t="s">
+    <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E89" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="89" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
-        <v>138</v>
+    <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
-        <v>138</v>
+    <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:987" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" s="7"/>
-      <c r="C101" s="7" t="s">
-        <v>24</v>
+      <c r="C101" t="s">
+        <v>23</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="14" t="s">
-        <v>118</v>
+      <c r="C102" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:987" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="14" t="s">
-        <v>118</v>
+      <c r="C103" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:987" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:987" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:987" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:987" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="7"/>
-      <c r="C107" s="7" t="s">
-        <v>24</v>
+      <c r="C107" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:987" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B118" s="7"/>
-      <c r="C118" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="C118" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B121" s="7"/>
-      <c r="C121" s="7" t="s">
-        <v>24</v>
+      <c r="C121" t="s">
+        <v>23</v>
       </c>
       <c r="D121" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B123" s="7"/>
-      <c r="C123" s="14" t="s">
-        <v>118</v>
+      <c r="C123" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:987" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B124" s="7"/>
-      <c r="C124" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C124" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:987" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="127" spans="1:987" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="1:987" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B128" s="7"/>
-      <c r="C128" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C128" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B129" s="7"/>
-      <c r="C129" s="7" t="s">
-        <v>42</v>
+      <c r="C129" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E129" s="7"/>
-    </row>
-    <row r="130" spans="1:987" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B131" s="7"/>
-      <c r="C131" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>70</v>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:987" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B136" s="7"/>
-      <c r="C136" s="7" t="s">
-        <v>24</v>
+      <c r="C136" t="s">
+        <v>23</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B137" s="7"/>
-      <c r="C137" s="14" t="s">
-        <v>118</v>
+      <c r="C137" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D137" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E140" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A138" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A139" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A140" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="142" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B142" s="7"/>
-      <c r="C142" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>70</v>
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="147" spans="1:987" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E147" s="7"/>
-    </row>
-    <row r="148" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A148" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D148" s="7" t="s">
+    </row>
+    <row r="149" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A149" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A150" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A151" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E151" s="7"/>
-    </row>
-    <row r="152" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B153" s="7"/>
-      <c r="C153" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>70</v>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E154" s="7"/>
-    </row>
-    <row r="155" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:987" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="7" t="s">
-        <v>24</v>
+      <c r="C158" t="s">
+        <v>23</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B159" s="7"/>
-      <c r="C159" s="14" t="s">
-        <v>118</v>
+      <c r="C159" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D159" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E162" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A160" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="161" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A161" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E161" s="16"/>
-    </row>
-    <row r="162" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A162" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E162" s="7"/>
-    </row>
-    <row r="163" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E163" s="7"/>
-    </row>
-    <row r="164" spans="1:987" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="E163" s="16"/>
+    </row>
+    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B165" s="7"/>
-      <c r="C165" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="16"/>
-    </row>
-    <row r="166" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E167" s="7"/>
-    </row>
-    <row r="168" spans="1:987" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="14" t="s">
-        <v>35</v>
+      <c r="C171" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="172" spans="1:987" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E172" s="21"/>
-    </row>
-    <row r="173" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="7"/>
-      <c r="C173" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E173" s="7"/>
-    </row>
-    <row r="174" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="C173" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E174" s="7"/>
-    </row>
-    <row r="175" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="21"/>
+    </row>
+    <row r="175" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D175" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:987" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7"/>
-      <c r="C177" s="7" t="s">
-        <v>24</v>
+      <c r="C177" t="s">
+        <v>23</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-    </row>
-    <row r="179" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="7"/>
-      <c r="C179" s="14" t="s">
-        <v>118</v>
+      <c r="C179" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D179" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E182" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A180" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="7"/>
-      <c r="C180" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="181" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A181" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A182" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="16"/>
-    </row>
-    <row r="183" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E183" s="7"/>
-    </row>
-    <row r="184" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E184" s="7"/>
-    </row>
-    <row r="185" spans="1:987" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="16"/>
+    </row>
+    <row r="185" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="186" spans="1:987" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186" s="7"/>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E187" s="7"/>
-    </row>
-    <row r="188" spans="1:987" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>192</v>
+        <v>55</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:987" x14ac:dyDescent="0.2">
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:987" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" t="s">
         <v>195</v>
       </c>
-      <c r="E195" s="7"/>
-    </row>
-    <row r="196" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A196" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="D199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A197" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="201" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
         <v>198</v>
       </c>
-      <c r="D197" t="s">
+    </row>
+    <row r="202" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C202" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A198" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D198" t="s">
+    <row r="203" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A199" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D199" t="s">
+    <row r="204" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="200" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A200" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="201" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A201" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D201" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A202" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D202" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="203" spans="1:987" x14ac:dyDescent="0.2">
-      <c r="A203" s="16"/>
-    </row>
-    <row r="1048576" spans="3:987" x14ac:dyDescent="0.2">
-      <c r="C1048576" s="7"/>
-    </row>
+    <row r="205" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4529,7 +4482,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -4538,39 +4491,39 @@
         <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4578,52 +4531,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -4632,19 +4585,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>4</v>
@@ -4652,34 +4605,34 @@
       <c r="G2" s="19"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4687,46 +4640,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4734,56 +4687,56 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -4791,13 +4744,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -4813,6 +4766,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>